--- a/src/main/resources/docs/Results_Total.xlsx
+++ b/src/main/resources/docs/Results_Total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\Navigation_Project\target\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\Navigation_Project\src\main\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{37C91D44-029D-4FFF-B408-3E6DE261D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38CD77-A9AA-43B1-97D2-148B9B71888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="37065" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_Total" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1388,7 +1388,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:srgbClr val="FF7575"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2880,11 +2880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
